--- a/gearss_data_dictionary_wOMOP.xlsx
+++ b/gearss_data_dictionary_wOMOP.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dm2569/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8451D91-5E6C-6247-A54F-A9E49C99F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8A104-5FDF-D240-BADB-2E8D371FA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="13940" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
+    <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="13940" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
   </bookViews>
   <sheets>
     <sheet name="gearss_data_dictionary_wOMOP" sheetId="1" r:id="rId1"/>
     <sheet name="notes" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="QUERY SPECIFICATIONS" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gearss_data_dictionary_wOMOP!$A$1:$F$764</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4448" uniqueCount="1232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="1241">
   <si>
     <t>var_name</t>
   </si>
@@ -3722,6 +3722,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://athena.ohdsi.org/search-terms/terms?domain=Condition&amp;page=1&amp;pageSize=15&amp;query=gallbladder+%7C+gallstone&amp;boosts </t>
+  </si>
+  <si>
+    <t>OMOP_CONCEPT_ID</t>
+  </si>
+  <si>
+    <t>VARNAME</t>
+  </si>
+  <si>
+    <t>VARVALUE</t>
+  </si>
+  <si>
+    <t>TERMINOLOGY</t>
+  </si>
+  <si>
+    <t>OMOP_TABLE_TO_JOIN</t>
+  </si>
+  <si>
+    <t>STANDARD CODE</t>
+  </si>
+  <si>
+    <t>OMOP FIELD</t>
+  </si>
+  <si>
+    <t>GEAR_VARDESC</t>
+  </si>
+  <si>
+    <t>GEAR_VARN</t>
   </si>
 </sst>
 </file>
@@ -4604,8 +4631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F1CBD9-DAA2-4C41-BF28-1B48A61D2B7C}">
   <dimension ref="A1:H764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19449,8 +19476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441977DD-205E-AB4D-BCFC-B1037F480A58}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19540,12 +19567,136 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1674E32-5A9E-A54C-A930-4C89C7A8984A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
+        <v>45882866</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
+        <v>40757757</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://athena.ohdsi.org/search-terms/terms/45882866" xr:uid="{A2AD024D-083D-D640-A895-447826DAAF25}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://athena.ohdsi.org/search-terms/terms/40757757" xr:uid="{B5837058-296D-4242-884C-0B306B752DB9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gearss_data_dictionary_wOMOP.xlsx
+++ b/gearss_data_dictionary_wOMOP.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dm2569/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D8A104-5FDF-D240-BADB-2E8D371FA4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4625E2B9-2519-CC4B-8B23-1E00BE7A3AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="13940" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
+    <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="17380" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
   </bookViews>
   <sheets>
-    <sheet name="gearss_data_dictionary_wOMOP" sheetId="1" r:id="rId1"/>
-    <sheet name="notes" sheetId="2" r:id="rId2"/>
-    <sheet name="QUERY SPECIFICATIONS" sheetId="3" r:id="rId3"/>
+    <sheet name="PROSPECTIVE" sheetId="1" r:id="rId1"/>
+    <sheet name="RETROSPECTIVE" sheetId="4" r:id="rId2"/>
+    <sheet name="notes" sheetId="2" r:id="rId3"/>
+    <sheet name="QUERY SPECIFICATIONS" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">gearss_data_dictionary_wOMOP!$A$1:$F$764</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PROSPECTIVE!$A$1:$F$764</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4631,8 +4645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F1CBD9-DAA2-4C41-BF28-1B48A61D2B7C}">
   <dimension ref="A1:H764"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19473,11 +19487,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE8CC84-DA5A-5D47-A279-16EBF4A1F059}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441977DD-205E-AB4D-BCFC-B1037F480A58}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19565,7 +19593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1674E32-5A9E-A54C-A930-4C89C7A8984A}">
   <dimension ref="A1:J9"/>
   <sheetViews>

--- a/gearss_data_dictionary_wOMOP.xlsx
+++ b/gearss_data_dictionary_wOMOP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dm2569/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dm2569/Documents/GitHub/profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4625E2B9-2519-CC4B-8B23-1E00BE7A3AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E5669-06A3-8642-8B1C-862375473928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="17380" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4475" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="1242">
   <si>
     <t>var_name</t>
   </si>
@@ -3763,6 +3763,9 @@
   </si>
   <si>
     <t>GEAR_VARN</t>
+  </si>
+  <si>
+    <t>Inna to update this</t>
   </si>
 </sst>
 </file>
@@ -19491,11 +19494,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/gearss_data_dictionary_wOMOP.xlsx
+++ b/gearss_data_dictionary_wOMOP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dm2569/Documents/GitHub/profiling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://yaleedu-my.sharepoint.com/personal/debra_tomasino_yale_edu/Documents/GEAR Ecosystem for Data/profiling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F77E5669-06A3-8642-8B1C-862375473928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{F77E5669-06A3-8642-8B1C-862375473928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6575C4B7-3598-4FF8-855F-420E685CC566}"/>
   <bookViews>
-    <workbookView xWindow="3820" yWindow="1600" windowWidth="25240" windowHeight="17380" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{322A892C-5887-4F4F-8F63-E3A9ECA846B3}"/>
   </bookViews>
   <sheets>
     <sheet name="PROSPECTIVE" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4974" uniqueCount="1435">
   <si>
     <t>var_name</t>
   </si>
@@ -3765,14 +3765,597 @@
     <t>GEAR_VARN</t>
   </si>
   <si>
-    <t>Inna to update this</t>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Choices</t>
+  </si>
+  <si>
+    <t>Choice Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATIENT_IDENTIFIER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique encrypted "PATIENT_IDENTIFIER" generated for each patient in order to identify a patient's records/visits - this identifier should not contain any PHI or identify the actual patient in any way. Used here to link multiple visits to the same person. For EPIC sites, this would be the PAT_ID. Be careful using medical record numbers (MRN) as the base identifier due to the potential of one patient to have multiple MRNS. This is NOT the encounter ID. Please generate unique identifiers that are 10-characters long. Characters and numbers can be used. </t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex at birth/legal sex </t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>Male, Female, Unknown, NA</t>
+  </si>
+  <si>
+    <t>Please use NA for missing values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender </t>
+  </si>
+  <si>
+    <t>Gender identity</t>
+  </si>
+  <si>
+    <t>Female, Male, Nonbinary, Other, Transgender female/male to female, Transgender male/female to male, Choose not to disclose, NA</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/jamiaopen/article/6/2/ooad042/7207381</t>
+  </si>
+  <si>
+    <t>Patient Ethnicity</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino, Non-Hispanic, Unknown, NA</t>
+  </si>
+  <si>
+    <t>Race(s)</t>
+  </si>
+  <si>
+    <t>categorical (pipe-delimitted with multiple values)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White, Black or African American, Asian
+ Native American or Alaskan Native, Native Hawaiian or Pacific Islander, Other, Unknown, NA
+    </t>
+  </si>
+  <si>
+    <t>If a patient selects multiple races, please separate each race with pipes (|). Please use NA for missing values.</t>
+  </si>
+  <si>
+    <t>If a patient identifies with three races, please code as: Black or African American|Asian|White.</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Language(s) used to communicate with patient. Please consider dialects underneath the main language. For example, "Chinese (Mandarin)", "Chinese (Other)", and "Chinese, Minnan (inc Taiwanese)" would be considered grouped under Chinese and thus coded as "zh"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ar, bn, cs, da, de, el, en, es, fi, fr, fy, hi, hr, it, ja, ko, nl, no, pa, pl, pt, ru, sr, sv, te, zh, Other, Unknown, NA</t>
+  </si>
+  <si>
+    <t>ar: Arabic, bn: Bengali, cs: Czech, da: Danish, de: German, el: Greek, en: English, es: Spanish, fi: Finnish, fr: French, fy: Frysian, hi: Hindi, hr: Croatian, it: Italian, ja: Japanese, ko: Korean, nl: Dutch, no: Norwegian, pa: Punjabi, pl: Polish, pt: Portuguese, ru: Russian, sr: Serbian, sv: Swedish, te: Telegu, zh: Chinese, Other, Unknown, Please use NA for missing</t>
+  </si>
+  <si>
+    <t>if a patient speaks multiple languages, but English is the first language, please code as: en|es|ar</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/R4/valueset-languages.html</t>
+  </si>
+  <si>
+    <t>Unique site name, should match REDCAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1, 2, 3, 4
+</t>
+  </si>
+  <si>
+    <t>1 = Emory, 2=NW, 3=Yale, 4=UAB</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique key associated with each patient encounter; this should be randomized and not identify the patient's visit in any way. Please generate unique identifiers that are 10-characters long. Characters and numbers can be used. </t>
+  </si>
+  <si>
+    <t>Hospital_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If your health system is submitting data for multiple organizations. Please indicate the organization name or ID. If submitting an ID, please provide a data dictionary for the mapping. </t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Age in years at encounter calculated from birth date and ED arrival time</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>Please use NA for missing</t>
+  </si>
+  <si>
+    <t>Chief_Complaint</t>
+  </si>
+  <si>
+    <t>Reason for visit category.The primary symptom that a patient states as the reason for visiting the ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If a patient has multiple chief complaints, the primary should be listed first: Fatigue|Headache </t>
+  </si>
+  <si>
+    <t>Mode_of_Arrival</t>
+  </si>
+  <si>
+    <t>How the patient arrived at the ED</t>
+  </si>
+  <si>
+    <t>Ambulance, Car, Foot, Helicopter, Public,  Other, Unknown, NA</t>
+  </si>
+  <si>
+    <t>Please use NA for missing. Foot includes Walk-in/Wheelchair/Carried-In.  Public includes public modes of transportation. Ambulance includes EMS/Fire department</t>
+  </si>
+  <si>
+    <t>https://terminology.hl7.org/3.1.0/ValueSet-v2-0430.html</t>
+  </si>
+  <si>
+    <t>Arrival_Time</t>
+  </si>
+  <si>
+    <t>Date and time of the patient's encounter or visit</t>
+  </si>
+  <si>
+    <t>datetime (YYYY-MM-DD HH:MM)</t>
+  </si>
+  <si>
+    <t>Disposition_Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date and time when the final ED disposition decision was made and recorded in the medical record.  </t>
+  </si>
+  <si>
+    <t>Disposition_Status</t>
+  </si>
+  <si>
+    <t>Status at time of the final ED disposition (does NOT include ED observation)</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, NA</t>
+  </si>
+  <si>
+    <t>1, Admit , 2, AMA , 3, Discharge , 4, Eloped , 5, Expired , 6, LWBS after Triage , 7, LWBS before Triage , 8, Hospital Observation , 9, Transfer to Another Facility , 10 Send to OR/Procedure</t>
+  </si>
+  <si>
+    <t>Departure_Time</t>
+  </si>
+  <si>
+    <t>Date and time when patient departed the ED (i.e., discharge took place)</t>
+  </si>
+  <si>
+    <t>Discharge_Time</t>
+  </si>
+  <si>
+    <t>Date and time when patient was discharged from the hospital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insurance </t>
+  </si>
+  <si>
+    <t>Insurance at time of visit</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, NA</t>
+  </si>
+  <si>
+    <t>1 Commercial , 2  Medicaid,  3 Medicaid Managed Care , 4 Medicare , 5 Medicare Managed Care , 6 BCBS , 7 Managed Care , 8 Self-Pay , 9 Workers Comp, Govt, or Other</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>Five-level emergency department (ED) triage algorithm that provides clinically relevant stratification of patients into five groups from 1 (most urgent) to 5 (least urgent) on the basis of acuity and resource needs.  </t>
+  </si>
+  <si>
+    <t>categorical (pipe-delimitted in temporal order)</t>
+  </si>
+  <si>
+    <t>If a patient has multiple ESI, the earliest one should be listed for: 3 | 2</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Anyone who indicates they are Expired (5) for their Dispositon_Status</t>
+  </si>
+  <si>
+    <t>Y, N, NA</t>
+  </si>
+  <si>
+    <t>Yes, No, Missing</t>
+  </si>
+  <si>
+    <t>Eloped</t>
+  </si>
+  <si>
+    <t>Anyone who indicates they are Eloped (4) for their Disposition_Status</t>
+  </si>
+  <si>
+    <t>ED_Obs</t>
+  </si>
+  <si>
+    <t>Anyone who who was placed into ED Observation</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Descriptive open text for chief complaint</t>
+  </si>
+  <si>
+    <t>BCU_or_CDU</t>
+  </si>
+  <si>
+    <t>Hospitalization</t>
+  </si>
+  <si>
+    <t>Y, N</t>
+  </si>
+  <si>
+    <t>Encounters</t>
+  </si>
+  <si>
+    <t>CPT_Code</t>
+  </si>
+  <si>
+    <t>Report any medical, surgical, or diagnostic procedures or services associated with the ED encounter</t>
+  </si>
+  <si>
+    <t>EncounterCPTs</t>
+  </si>
+  <si>
+    <t>Diagnosis_Code</t>
+  </si>
+  <si>
+    <t>ICD-10 diagnosis code associated with the ED visit. If there are multiple diagnoses at the encounter, please list each diagnoses on its own row.</t>
+  </si>
+  <si>
+    <t>Primary_Diagnosis</t>
+  </si>
+  <si>
+    <t>Indicates Yes, No for each diagnosis whether it is the primary diagnosis or not. If there are multiple diagnoses at the encounter, please list each diagnoses on its own row.</t>
+  </si>
+  <si>
+    <t>Yes, No</t>
+  </si>
+  <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>ICD10CM, ICD9CM, SNOMED</t>
+  </si>
+  <si>
+    <t>EncounterDiagnoses</t>
+  </si>
+  <si>
+    <t>Diagnosis code. Please list each diagnosis code in its own row. These are diagnosis codes that occur more than 24 hours prior to the arrival time for the encounter.</t>
+  </si>
+  <si>
+    <t>Noted_Date</t>
+  </si>
+  <si>
+    <t>Date when diagnosis was entered</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Date when either diagnosis ends or resolved</t>
+  </si>
+  <si>
+    <t>Diagnosis_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please specify from where the diagnosis was extracted from. </t>
+  </si>
+  <si>
+    <t>Problem List, Past Medical History, Prior Encounter</t>
+  </si>
+  <si>
+    <t>Active_Status</t>
+  </si>
+  <si>
+    <t>Flag to indicate whether a diagnosis is currently active for the patient</t>
+  </si>
+  <si>
+    <t>Active, Resolved, Deleted</t>
+  </si>
+  <si>
+    <t>HistoricalDiagnoses</t>
+  </si>
+  <si>
+    <t>Vital_Name</t>
+  </si>
+  <si>
+    <t>Indicates the vital name associated with the encounter</t>
+  </si>
+  <si>
+    <t>BP, Pulse, Resp, SpO2, Temp, O2 Type
+Note: BP format should be Systolic/Diastolic</t>
+  </si>
+  <si>
+    <t>Vital_Time</t>
+  </si>
+  <si>
+    <t>The time associated with the vital</t>
+  </si>
+  <si>
+    <t>Vital_Value</t>
+  </si>
+  <si>
+    <t>Indicates the actual value of the vital</t>
+  </si>
+  <si>
+    <t>Vitals</t>
+  </si>
+  <si>
+    <t>Order_Time</t>
+  </si>
+  <si>
+    <t>Timestamp for when the medication was ordered</t>
+  </si>
+  <si>
+    <t>Drug_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescriptions ordered by the ED for after discharge. Drug Name/Prescription: the generic name of the drug·                  </t>
+  </si>
+  <si>
+    <t>RxNorm_Code</t>
+  </si>
+  <si>
+    <t>The RxNorm code associated with the prescription</t>
+  </si>
+  <si>
+    <t>https://www.nlm.nih.gov/research/umls/rxnorm/index.html</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Route: how the drug is administered     </t>
+  </si>
+  <si>
+    <t>Dose</t>
+  </si>
+  <si>
+    <t>Dosage: the amount the patient should receive each time the medication is taken</t>
+  </si>
+  <si>
+    <t>Dose_Unit</t>
+  </si>
+  <si>
+    <t>Unit: prescription unit(mg, ml, etc).</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Frequency: a standard frequency for when the order should be conducted</t>
+  </si>
+  <si>
+    <t>Twice weekly</t>
+  </si>
+  <si>
+    <t>Dose_Count</t>
+  </si>
+  <si>
+    <t>Number of dosages prescripted. For example, number of pills/tabs.</t>
+  </si>
+  <si>
+    <t>15 tablet</t>
+  </si>
+  <si>
+    <t>Number_Refills</t>
+  </si>
+  <si>
+    <t>Number of refills (if available)</t>
+  </si>
+  <si>
+    <t>EDPrescriptions</t>
+  </si>
+  <si>
+    <t>Taken_Time</t>
+  </si>
+  <si>
+    <t>Timestamp for when the medication was taken or administered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescriptions ordered during ED stay. Drug Name/Prescription: the generic name of the drug·                  </t>
+  </si>
+  <si>
+    <t>RxNorm_Code (optional)</t>
+  </si>
+  <si>
+    <t>EDMedAdministrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescriptions ordered before ED visit. Drug Name/Prescription: the generic name of the drug·                  </t>
+  </si>
+  <si>
+    <t>Flag to indicate whether a prescription is currently active for the patient</t>
+  </si>
+  <si>
+    <t>HistoricalOutpatientMeds</t>
+  </si>
+  <si>
+    <t>CAM_Time</t>
+  </si>
+  <si>
+    <t>Timestamp of CAM accessment</t>
+  </si>
+  <si>
+    <t>CAM_1</t>
+  </si>
+  <si>
+    <t>CAM result for change in mental status component</t>
+  </si>
+  <si>
+    <t>No, Yes, Not Present, Present, NA</t>
+  </si>
+  <si>
+    <t>CAM_2</t>
+  </si>
+  <si>
+    <t>CAM result for inattention component</t>
+  </si>
+  <si>
+    <t>CAM_3</t>
+  </si>
+  <si>
+    <t>CAM result for disorganized thinking component</t>
+  </si>
+  <si>
+    <t>CAM_4</t>
+  </si>
+  <si>
+    <t>CAM result for altered level of consciousness component</t>
+  </si>
+  <si>
+    <t>CAM_Result</t>
+  </si>
+  <si>
+    <t>Overall CAM assessment results</t>
+  </si>
+  <si>
+    <t>Positive, Negative, NA</t>
+  </si>
+  <si>
+    <t>CAM_Positive</t>
+  </si>
+  <si>
+    <t>Positive it there was ever a "CAM_Result" that was positive during a patient encounter</t>
+  </si>
+  <si>
+    <t>1,NA</t>
+  </si>
+  <si>
+    <t>CAM</t>
+  </si>
+  <si>
+    <t>Screening_Test</t>
+  </si>
+  <si>
+    <t>Delirium test administered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical </t>
+  </si>
+  <si>
+    <t>bCAM, DTS, NuDESC</t>
+  </si>
+  <si>
+    <t>Test_Time</t>
+  </si>
+  <si>
+    <t>Time when delirium test was administere</t>
+  </si>
+  <si>
+    <t>Item_1</t>
+  </si>
+  <si>
+    <t>NuDESC result for disorientation; bCAM result for change in mental status component; DTS result for alert/calm</t>
+  </si>
+  <si>
+    <t>Item_2</t>
+  </si>
+  <si>
+    <t>NuDESC result for inappropriate behavior; bCAM result for inattention component; DTS result for inattention</t>
+  </si>
+  <si>
+    <t>Item_3</t>
+  </si>
+  <si>
+    <t>NuDESC result for inappropriate communication; bCAM result for disorganized thinking component</t>
+  </si>
+  <si>
+    <t>Item_4</t>
+  </si>
+  <si>
+    <t>NuDESC result for illusions/hallucinations; bCAM result for altered level of consciousness component</t>
+  </si>
+  <si>
+    <t>Item_5</t>
+  </si>
+  <si>
+    <t>NuDESC result for psychomotor retardation</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall delirium assessment result reported in the EHR </t>
+  </si>
+  <si>
+    <t>NuDESC score &gt;= 2 is Positive</t>
+  </si>
+  <si>
+    <t>Result_Calculated</t>
+  </si>
+  <si>
+    <t>Overall delirium assessment result calculated using responses to exam questions</t>
+  </si>
+  <si>
+    <t>Delirium_Positive_Ever</t>
+  </si>
+  <si>
+    <t>Positive it there was ever a "Result" that was positive during a patient encounter</t>
+  </si>
+  <si>
+    <t>1,0,NA</t>
+  </si>
+  <si>
+    <t>For Northwestern, delirium positive only if there was a positive bCAM. Negative DTS was sufficient for a negative delirium diagnosis</t>
+  </si>
+  <si>
+    <t>Delirium_Positive_Ever_Calculated</t>
+  </si>
+  <si>
+    <t>Positive it there was ever a "Result_Calculated" that was positive during a patient encounter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3920,8 +4503,26 @@
       <color rgb="FF464646"/>
       <name val="HelveticaNeue"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4101,6 +4702,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -4263,12 +4870,33 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4316,7 +4944,47 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4327,6 +4995,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1F50EF84-73E9-4844-886C-03F168CFB8E0}" name="Table1" displayName="Table1" ref="A1:H105" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:H105" xr:uid="{1F50EF84-73E9-4844-886C-03F168CFB8E0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CE768499-3D9A-4F13-96D3-D3E88C42A032}" name="Column" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{90507508-7E5A-435E-9BAD-F0ABC30284FA}" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{0ED5BCB4-53F8-41F7-BF72-C14446EFEA78}" name="Format" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{C9B62A54-0602-465E-9B76-E1C372D653D8}" name="Choices" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1DDB4F8F-5E1A-4F2A-9FC2-E6922841E23E}" name="Choice Description" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A547E17E-8E46-414C-95F3-04D9C32192A7}" name="Example" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{5EE97FF7-F10B-4222-B9A7-DBA5F10C8861}" name="Reference"/>
+    <tableColumn id="8" xr3:uid="{1CEBC0AD-5C97-4323-97EB-8D0758328525}" name="Table"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4652,7 +5337,7 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -5129,7 +5814,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="51">
+    <row r="24" spans="1:8" ht="48">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -5155,7 +5840,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="51">
+    <row r="25" spans="1:8" ht="48">
       <c r="A25" t="s">
         <v>63</v>
       </c>
@@ -19491,21 +20176,1910 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE8CC84-DA5A-5D47-A279-16EBF4A1F059}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="2" max="2" width="11.9140625" customWidth="1"/>
+    <col min="5" max="5" width="17.4140625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>1241</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.5">
+      <c r="A2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64">
+      <c r="A3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="208">
+      <c r="A4" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="80">
+      <c r="A5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="272">
+      <c r="A6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.5">
+      <c r="A7" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="80">
+      <c r="A8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.5">
+      <c r="A9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="384">
+      <c r="A10" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="304">
+      <c r="A11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="112">
+      <c r="A12" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="176">
+      <c r="A13" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="288">
+      <c r="A14" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80">
+      <c r="A15" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="160">
+      <c r="A16" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="288">
+      <c r="A17" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="112">
+      <c r="A18" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="96">
+      <c r="A19" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="288">
+      <c r="A20" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="336">
+      <c r="A21" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="80">
+      <c r="A24" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="96">
+      <c r="A25" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="80">
+      <c r="A26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="384">
+      <c r="A29" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="80">
+      <c r="A31" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="384">
+      <c r="A32" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="H32" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="240">
+      <c r="A33" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="H33" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="272">
+      <c r="A34" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="80">
+      <c r="A35" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="48">
+      <c r="A36" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="384">
+      <c r="A37" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="256">
+      <c r="A38" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="48">
+      <c r="A39" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="80">
+      <c r="A40" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="112">
+      <c r="A41" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="H41" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="112">
+      <c r="A42" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="80">
+      <c r="A43" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="48">
+      <c r="A44" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="384">
+      <c r="A45" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="144">
+      <c r="A46" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="48">
+      <c r="A47" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="64">
+      <c r="A48" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="80">
+      <c r="A49" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="384">
+      <c r="A50" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="H50" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="64">
+      <c r="A51" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F51" s="8"/>
+      <c r="H51" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="176">
+      <c r="A52" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="H52" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="80">
+      <c r="A53" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="64">
+      <c r="A54" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F54" s="8"/>
+      <c r="H54" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="144">
+      <c r="A55" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F55" s="8">
+        <v>20</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="64">
+      <c r="A56" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>1372</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="112">
+      <c r="A57" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>1375</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="112">
+      <c r="A58" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="48">
+      <c r="A59" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="11"/>
+      <c r="H59" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="80">
+      <c r="A60" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F60" s="12"/>
+      <c r="G60" s="3"/>
+      <c r="H60" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="384">
+      <c r="A61" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="64">
+      <c r="A62" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="112">
+      <c r="A63" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="144">
+      <c r="A64" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="80">
+      <c r="A65" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="64">
+      <c r="A66" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="144">
+      <c r="A67" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="64">
+      <c r="A68" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="112">
+      <c r="A69" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="112">
+      <c r="A70" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="80">
+      <c r="A71" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="384">
+      <c r="A72" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="64">
+      <c r="A73" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="144">
+      <c r="A74" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="80">
+      <c r="A75" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1365</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="64">
+      <c r="A76" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="144">
+      <c r="A77" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="64">
+      <c r="A78" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="112">
+      <c r="A79" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="112">
+      <c r="A80" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="48">
+      <c r="A81" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="112">
+      <c r="A82" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="80">
+      <c r="A83" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="384">
+      <c r="A84" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="64">
+      <c r="A85" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="80">
+      <c r="A86" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="64">
+      <c r="A87" s="3" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="80">
+      <c r="A88" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="96">
+      <c r="A89" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="48">
+      <c r="A90" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="144">
+      <c r="A91" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="80">
+      <c r="A92" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="384">
+      <c r="A93" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="H93" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="64">
+      <c r="A94" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="H94" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="64">
+      <c r="A95" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="H95" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="192">
+      <c r="A96" s="3" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="H96" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="176">
+      <c r="A97" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="H97" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="160">
+      <c r="A98" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="H98" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="160">
+      <c r="A99" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="H99" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="64">
+      <c r="A100" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="H100" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="96">
+      <c r="A101" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="H101" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="144">
+      <c r="A102" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="H102" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="224">
+      <c r="A103" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="H103" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="224">
+      <c r="A104" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="80">
+      <c r="A105" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1204</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G7" r:id="rId1" xr:uid="{9F200E68-EE12-4F31-A9DC-060FF5817185}"/>
+    <hyperlink ref="G53" r:id="rId2" xr:uid="{88B0F57A-EC7B-45AF-A975-5F6764EBC957}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19517,7 +22091,7 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -19610,7 +22184,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" customWidth="1"/>
